--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shnu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\LBSinSHNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1930,10 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013.8.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2013.8.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2948,13 +2944,17 @@
   <si>
     <t xml:space="preserve"> 13:00</t>
   </si>
+  <si>
+    <t>2013.8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3540,7 +3540,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -3599,40 +3599,6 @@
     <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3792,7 +3758,41 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3895,43 +3895,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L194" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L194" tableType="xml" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" connectionId="1">
   <autoFilter ref="A1:L194"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="id" name="ID" dataDxfId="13">
+    <tableColumn id="1" uniqueName="id" name="ID" dataDxfId="11">
       <xmlColumnPr mapId="1" xpath="/root/row/id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="name" name="Name" dataDxfId="12">
+    <tableColumn id="2" uniqueName="name" name="Name" dataDxfId="10">
       <xmlColumnPr mapId="1" xpath="/root/row/name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="date" name="Date" dataDxfId="11">
+    <tableColumn id="3" uniqueName="date" name="Date" dataDxfId="9">
       <xmlColumnPr mapId="1" xpath="/root/row/date" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="time" name="Time" dataDxfId="10">
+    <tableColumn id="4" uniqueName="time" name="Time" dataDxfId="8">
       <xmlColumnPr mapId="1" xpath="/root/row/time" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="location" name="Location" dataDxfId="9">
+    <tableColumn id="5" uniqueName="location" name="Location" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/root/row/location" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="building" name="Building" dataDxfId="8">
+    <tableColumn id="6" uniqueName="building" name="Building" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/root/row/building" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="Type" dataDxfId="7">
+    <tableColumn id="7" uniqueName="type" name="Type" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/root/row/type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="speaker" name="Speaker" dataDxfId="6">
+    <tableColumn id="8" uniqueName="speaker" name="Speaker" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/root/row/speaker" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="speakertitle" name="SpeakerTitle" dataDxfId="5">
+    <tableColumn id="9" uniqueName="speakertitle" name="SpeakerTitle" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/root/row/speakertitle" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="islike" name="ISLike" dataDxfId="4">
+    <tableColumn id="10" uniqueName="islike" name="ISLike" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/root/row/islike" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="price" name="Price" dataDxfId="3">
+    <tableColumn id="11" uniqueName="price" name="Price" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/root/row/price" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="description" name="Description" dataDxfId="2">
+    <tableColumn id="12" uniqueName="description" name="Description" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/root/row/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4204,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L194"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4247,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -4273,19 +4273,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>71</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,13 +4317,13 @@
         <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>71</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4355,7 +4355,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>66</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4393,7 +4393,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>67</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4431,7 +4431,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>68</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4469,7 +4469,7 @@
         <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>69</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,7 +4507,7 @@
         <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>64</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4545,7 +4545,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>65</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4583,7 +4583,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>66</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4621,7 +4621,7 @@
         <v>106</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>67</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4659,7 +4659,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>68</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4697,7 +4697,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>69</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4729,13 +4729,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>64</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4773,7 +4773,7 @@
         <v>110</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>65</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4811,7 +4811,7 @@
         <v>111</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>66</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4849,7 +4849,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>67</v>
@@ -4861,7 +4861,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>56</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4887,13 +4887,13 @@
         <v>99</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>70</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4925,13 +4925,13 @@
         <v>113</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>70</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4963,13 +4963,13 @@
         <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>70</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5001,13 +5001,13 @@
         <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>70</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5039,13 +5039,13 @@
         <v>104</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>70</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5077,13 +5077,13 @@
         <v>128</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>70</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5115,13 +5115,13 @@
         <v>129</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>70</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5153,13 +5153,13 @@
         <v>130</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>70</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5185,19 +5185,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>70</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5223,19 +5223,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>70</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5267,13 +5267,13 @@
         <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>70</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5305,13 +5305,13 @@
         <v>137</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>70</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,13 +5343,13 @@
         <v>138</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>70</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5381,13 +5381,13 @@
         <v>181</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>70</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5419,13 +5419,13 @@
         <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>70</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5457,13 +5457,13 @@
         <v>184</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>70</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5495,13 +5495,13 @@
         <v>185</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>70</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5533,13 +5533,13 @@
         <v>186</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>70</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5571,13 +5571,13 @@
         <v>187</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>70</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,13 +5609,13 @@
         <v>130</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>70</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5647,13 +5647,13 @@
         <v>188</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>70</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5685,13 +5685,13 @@
         <v>189</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>70</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5723,13 +5723,13 @@
         <v>134</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>70</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5761,13 +5761,13 @@
         <v>190</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>70</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5799,13 +5799,13 @@
         <v>191</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>70</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5837,13 +5837,13 @@
         <v>192</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>70</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5875,13 +5875,13 @@
         <v>193</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>70</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5913,13 +5913,13 @@
         <v>231</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>70</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5951,13 +5951,13 @@
         <v>113</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>70</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5983,19 +5983,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>70</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6027,13 +6027,13 @@
         <v>234</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>70</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6065,13 +6065,13 @@
         <v>235</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>70</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6103,13 +6103,13 @@
         <v>129</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>70</v>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6141,13 +6141,13 @@
         <v>132</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>70</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6179,13 +6179,13 @@
         <v>188</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>70</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6217,13 +6217,13 @@
         <v>189</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>70</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6255,13 +6255,13 @@
         <v>134</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>70</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6293,13 +6293,13 @@
         <v>190</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>70</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6331,13 +6331,13 @@
         <v>191</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>70</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6369,13 +6369,13 @@
         <v>192</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>70</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6407,13 +6407,13 @@
         <v>474</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>70</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6445,13 +6445,13 @@
         <v>97</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>70</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6483,13 +6483,13 @@
         <v>475</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>70</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6521,13 +6521,13 @@
         <v>476</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>70</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6559,13 +6559,13 @@
         <v>104</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>70</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6597,13 +6597,13 @@
         <v>477</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>70</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6635,13 +6635,13 @@
         <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>70</v>
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6673,13 +6673,13 @@
         <v>133</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>70</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6711,13 +6711,13 @@
         <v>131</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>70</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6749,13 +6749,13 @@
         <v>478</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>70</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6787,13 +6787,13 @@
         <v>479</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>70</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6825,13 +6825,13 @@
         <v>480</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>70</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6863,13 +6863,13 @@
         <v>105</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>70</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6901,13 +6901,13 @@
         <v>481</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>473</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>70</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6939,13 +6939,13 @@
         <v>484</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>70</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6977,13 +6977,13 @@
         <v>485</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>70</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7015,13 +7015,13 @@
         <v>232</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>70</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7053,13 +7053,13 @@
         <v>126</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>70</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7091,13 +7091,13 @@
         <v>233</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>70</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7129,13 +7129,13 @@
         <v>486</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>70</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7167,13 +7167,13 @@
         <v>235</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>70</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7205,13 +7205,13 @@
         <v>487</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>70</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7243,13 +7243,13 @@
         <v>129</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>70</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7281,13 +7281,13 @@
         <v>488</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>70</v>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7319,13 +7319,13 @@
         <v>132</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>70</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7357,13 +7357,13 @@
         <v>131</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>70</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7395,13 +7395,13 @@
         <v>490</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>70</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7433,13 +7433,13 @@
         <v>480</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>70</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7471,13 +7471,13 @@
         <v>491</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>70</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7509,13 +7509,13 @@
         <v>489</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>483</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>70</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7547,13 +7547,13 @@
         <v>474</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>70</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7585,13 +7585,13 @@
         <v>484</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>70</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7623,13 +7623,13 @@
         <v>125</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>70</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7661,13 +7661,13 @@
         <v>127</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>70</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7699,13 +7699,13 @@
         <v>104</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>70</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7737,13 +7737,13 @@
         <v>128</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>70</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7775,13 +7775,13 @@
         <v>129</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>70</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7813,13 +7813,13 @@
         <v>130</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>70</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7851,13 +7851,13 @@
         <v>494</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>70</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7889,13 +7889,13 @@
         <v>131</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>70</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7927,13 +7927,13 @@
         <v>478</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>70</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7965,13 +7965,13 @@
         <v>479</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>70</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8003,13 +8003,13 @@
         <v>480</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>70</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8041,13 +8041,13 @@
         <v>105</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>70</v>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8079,13 +8079,13 @@
         <v>481</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>70</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8117,13 +8117,13 @@
         <v>489</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>493</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>70</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8155,13 +8155,13 @@
         <v>498</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>70</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8193,13 +8193,13 @@
         <v>97</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>70</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8231,13 +8231,13 @@
         <v>113</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>70</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8269,13 +8269,13 @@
         <v>184</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>70</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8307,13 +8307,13 @@
         <v>499</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>70</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8345,13 +8345,13 @@
         <v>486</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>70</v>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8383,13 +8383,13 @@
         <v>477</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>70</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8421,13 +8421,13 @@
         <v>500</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>70</v>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8459,13 +8459,13 @@
         <v>132</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>70</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8497,13 +8497,13 @@
         <v>494</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>70</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8535,13 +8535,13 @@
         <v>188</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>70</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8573,13 +8573,13 @@
         <v>189</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>70</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8611,13 +8611,13 @@
         <v>134</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>70</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8649,13 +8649,13 @@
         <v>190</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>70</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8687,13 +8687,13 @@
         <v>191</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>70</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8725,13 +8725,13 @@
         <v>192</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>70</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8763,13 +8763,13 @@
         <v>193</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>70</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8801,13 +8801,13 @@
         <v>194</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>70</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8839,13 +8839,13 @@
         <v>498</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>70</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8877,13 +8877,13 @@
         <v>231</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>70</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8915,13 +8915,13 @@
         <v>112</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>70</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8953,13 +8953,13 @@
         <v>125</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>70</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8991,13 +8991,13 @@
         <v>476</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>70</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9029,13 +9029,13 @@
         <v>233</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>70</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9067,13 +9067,13 @@
         <v>503</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>70</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9105,13 +9105,13 @@
         <v>477</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>70</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9143,13 +9143,13 @@
         <v>129</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>70</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9181,13 +9181,13 @@
         <v>504</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>70</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9219,13 +9219,13 @@
         <v>133</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>70</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9257,13 +9257,13 @@
         <v>505</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>70</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9295,13 +9295,13 @@
         <v>506</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>70</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9333,13 +9333,13 @@
         <v>495</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>70</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9371,13 +9371,13 @@
         <v>507</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>70</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9409,13 +9409,13 @@
         <v>111</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>70</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9447,13 +9447,13 @@
         <v>137</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>501</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>70</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9485,13 +9485,13 @@
         <v>508</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>70</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9517,19 +9517,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>498</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -9547,7 +9547,7 @@
         <v>15</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9555,19 +9555,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>548</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
@@ -9585,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9593,19 +9593,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>15</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9631,19 +9631,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9669,19 +9669,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>549</v>
+        <v>799</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
@@ -9699,7 +9699,7 @@
         <v>15</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9707,19 +9707,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>15</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9745,19 +9745,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>15</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9783,19 +9783,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>15</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9821,19 +9821,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
@@ -9851,7 +9851,7 @@
         <v>15</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9859,19 +9859,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -9889,7 +9889,7 @@
         <v>15</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9897,19 +9897,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>15</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9938,16 +9938,16 @@
         <v>510</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G151" s="2">
         <v>1</v>
@@ -9965,7 +9965,7 @@
         <v>15</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9973,19 +9973,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G152" s="2">
         <v>1</v>
@@ -10003,7 +10003,7 @@
         <v>15</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10011,19 +10011,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
@@ -10041,7 +10041,7 @@
         <v>15</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10049,19 +10049,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G154" s="2">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>15</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10087,19 +10087,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G155" s="2">
         <v>1</v>
@@ -10117,7 +10117,7 @@
         <v>15</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10125,19 +10125,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G156" s="2">
         <v>1</v>
@@ -10155,7 +10155,7 @@
         <v>15</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10166,16 +10166,16 @@
         <v>537</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G157" s="2">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>15</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10201,28 +10201,28 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J158" s="4">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>15</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10239,28 +10239,28 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G159" s="2">
         <v>1</v>
       </c>
       <c r="H159" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I159" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="J159" s="4">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>15</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10277,28 +10277,28 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>611</v>
-      </c>
       <c r="D160" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G160" s="2">
         <v>1</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J160" s="4">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>20</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10315,28 +10315,28 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G161" s="2">
         <v>1</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J161" s="4">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>20</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10353,28 +10353,28 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I162" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="J162" s="4">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>20</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10391,28 +10391,28 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G163" s="2">
         <v>1</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J163" s="4">
         <v>0</v>
@@ -10421,7 +10421,7 @@
         <v>20</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10429,28 +10429,28 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J164" s="4">
         <v>0</v>
@@ -10459,7 +10459,7 @@
         <v>20</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10467,28 +10467,28 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
       </c>
       <c r="H165" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="I165" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="J165" s="4">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>20</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10505,28 +10505,28 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
       </c>
       <c r="H166" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="J166" s="4">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>20</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10543,28 +10543,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G167" s="2">
         <v>1</v>
       </c>
       <c r="H167" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="J167" s="4">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>20</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10581,28 +10581,28 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G168" s="2">
         <v>1</v>
       </c>
       <c r="H168" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="J168" s="4">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>20</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10619,28 +10619,28 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G169" s="2">
         <v>1</v>
       </c>
       <c r="H169" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="J169" s="4">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>20</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10657,28 +10657,28 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G170" s="2">
         <v>1</v>
       </c>
       <c r="H170" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="J170" s="4">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>20</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10695,28 +10695,28 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G171" s="2">
         <v>1</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J171" s="4">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>20</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10733,28 +10733,28 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G172" s="2">
         <v>1</v>
       </c>
       <c r="H172" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="J172" s="4">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>20</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10771,28 +10771,28 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G173" s="2">
         <v>1</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J173" s="4">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>20</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10809,28 +10809,28 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G174" s="2">
         <v>1</v>
       </c>
       <c r="H174" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="I174" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="J174" s="4">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10847,28 +10847,28 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G175" s="2">
         <v>1</v>
       </c>
       <c r="H175" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="J175" s="4">
         <v>0</v>
@@ -10877,7 +10877,7 @@
         <v>20</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10885,28 +10885,28 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G176" s="2">
         <v>1</v>
       </c>
       <c r="H176" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="I176" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="J176" s="4">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>20</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10923,28 +10923,28 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G177" s="2">
         <v>1</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J177" s="4">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>20</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10961,28 +10961,28 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G178" s="2">
         <v>3</v>
       </c>
       <c r="H178" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I178" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="J178" s="4">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>20</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10999,28 +10999,28 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G179" s="2">
         <v>3</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J179" s="4">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>20</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11037,28 +11037,28 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G180" s="2">
         <v>3</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J180" s="4">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>20</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11075,28 +11075,28 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G181" s="2">
         <v>3</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J181" s="4">
         <v>0</v>
@@ -11105,7 +11105,7 @@
         <v>20</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11113,28 +11113,28 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G182" s="2">
         <v>3</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J182" s="4">
         <v>0</v>
@@ -11143,7 +11143,7 @@
         <v>20</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11151,28 +11151,28 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G183" s="2">
         <v>3</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J183" s="4">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>20</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11189,28 +11189,28 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G184" s="2">
         <v>3</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J184" s="4">
         <v>0</v>
@@ -11219,7 +11219,7 @@
         <v>20</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11227,28 +11227,28 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G185" s="2">
         <v>3</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J185" s="4">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>20</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11265,28 +11265,28 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G186" s="2">
         <v>3</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J186" s="4">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>20</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11303,28 +11303,28 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G187" s="2">
         <v>3</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J187" s="4">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>20</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11341,28 +11341,28 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G188" s="2">
         <v>3</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J188" s="4">
         <v>0</v>
@@ -11371,7 +11371,7 @@
         <v>20</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11379,28 +11379,28 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G189" s="2">
         <v>3</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J189" s="4">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>20</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11417,28 +11417,28 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G190" s="2">
         <v>3</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J190" s="4">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>20</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11455,28 +11455,28 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G191" s="2">
         <v>3</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J191" s="4">
         <v>0</v>
@@ -11485,7 +11485,7 @@
         <v>20</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11493,28 +11493,28 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G192" s="2">
         <v>3</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J192" s="4">
         <v>0</v>
@@ -11523,7 +11523,7 @@
         <v>20</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11531,28 +11531,28 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G193" s="2">
         <v>3</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J193" s="4">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>20</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11569,28 +11569,28 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G194" s="2">
         <v>3</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J194" s="4">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>20</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -11608,7 +11608,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -11657,12 +11657,12 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -11678,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -11686,7 +11686,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -11707,7 +11707,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -11736,7 +11736,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
